--- a/biology/Biochimie/Isomaltose/Isomaltose.xlsx
+++ b/biology/Biochimie/Isomaltose/Isomaltose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L’isomaltose est un diholoside formé par deux unités de glucoses[2].
+L’isomaltose est un diholoside formé par deux unités de glucoses.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'isomaltose est naturellement présent dans les graines de plante et dans certains miels (miel de tilleul : 1,2 à 1,6 %[3]). On peut l'obtenir par une hydrolyse de l'amidon ou du glycogène. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'isomaltose est naturellement présent dans les graines de plante et dans certains miels (miel de tilleul : 1,2 à 1,6 %). On peut l'obtenir par une hydrolyse de l'amidon ou du glycogène. 
 </t>
         </is>
       </c>
@@ -545,12 +559,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Structure
-L'isomaltose est un homodiholoside tout comme le maltose et le cellobiose, car ils ne contiennent qu'une sorte d'ose, le glucose. 
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'isomaltose est un homodiholoside tout comme le maltose et le cellobiose, car ils ne contiennent qu'une sorte d'ose, le glucose. 
 Ainsi, la structure de l'isomaltose est similaire à celle du maltose, la différence résidant dans la nature de la liaison osidique qui relie les deux glucoses. Une  liaison de type α(1→6) au lieu de α(1→4) pour le maltose. 
 En effet, le lien se fait entre les groupes hydroxyles du carbone 1 d'un glucose en position alpha (α) et le carbone 6 de l'autre unité de glucose.
-Caractéristiques physiques
-L'isomaltose est un solide blanc de formule chimique C12H22O11 et de poids moléculaire 342,29 g·mol-1. Comme la plupart des diholosides, il est soluble dans l'eau[2].
 </t>
         </is>
       </c>
@@ -576,12 +593,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Chimie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Caractéristiques physiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'isomaltose est un solide blanc de formule chimique C12H22O11 et de poids moléculaire 342,29 g·mol-1. Comme la plupart des diholosides, il est soluble dans l'eau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Isomaltose</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isomaltose</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Métabolisme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La consommation d'amidon contenu dans les aliments à base de féculent (pain) entraîne la production de maltose et d'isomaltose par l'action des amylases salivaires et pancréatiques (ces amylases sont des (α1→4) et (α1→6) glucosidases). Ceux-ci sont normalement hydrolysés dans la lumière intestinale en glucose par 2 enzymes (la maltase et l'isomaltase) placées sur la bordure intestinale. Le glucose est ensuite absorbé par l'entérocyte puis, en utilisant un transporteur passif, passe dans le sang. Une intolérance à l'absorption de l'isomaltose existe due à l'absence ou au déficit de l'enzyme isomaltase[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La consommation d'amidon contenu dans les aliments à base de féculent (pain) entraîne la production de maltose et d'isomaltose par l'action des amylases salivaires et pancréatiques (ces amylases sont des (α1→4) et (α1→6) glucosidases). Ceux-ci sont normalement hydrolysés dans la lumière intestinale en glucose par 2 enzymes (la maltase et l'isomaltase) placées sur la bordure intestinale. Le glucose est ensuite absorbé par l'entérocyte puis, en utilisant un transporteur passif, passe dans le sang. Une intolérance à l'absorption de l'isomaltose existe due à l'absence ou au déficit de l'enzyme isomaltase.
 </t>
         </is>
       </c>
